--- a/data/Equipos_2024.xlsx
+++ b/data/Equipos_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SuperUsuario\Desktop\Proyecto_TFM\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scontrerash\Documents\1- Personal\Master\Proyecto Python Edgardo\TFM_EPMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C438F8F7-7198-4E9A-83EE-345870FCE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73809298-F282-4F34-A1F9-1B2B62C6A4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="8820" windowHeight="11295" xr2:uid="{3EE82E14-9778-43CE-B6BD-EDC260A89099}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{3EE82E14-9778-43CE-B6BD-EDC260A89099}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -659,12 +659,6 @@
     <t>assets/logos/iquique.png</t>
   </si>
   <si>
-    <t>assets/logos/udechile.png</t>
-  </si>
-  <si>
-    <t>assets/logos/colocolo.png</t>
-  </si>
-  <si>
     <t>Colo-Colo</t>
   </si>
   <si>
@@ -702,6 +696,12 @@
   </si>
   <si>
     <t>Copiapo</t>
+  </si>
+  <si>
+    <t>/assets/logos/colocolo.png</t>
+  </si>
+  <si>
+    <t>/assets/logos/udechile.png</t>
   </si>
 </sst>
 </file>
@@ -1777,7 +1777,7 @@
   <dimension ref="A1:CF17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="2" spans="1:84" ht="16.5" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="3" spans="1:84" ht="15.75">
       <c r="A3" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="4" spans="1:84" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>125</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="5" spans="1:84" ht="15.75">
       <c r="A5" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>173</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="6" spans="1:84" ht="15.75">
       <c r="A6" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>150</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="7" spans="1:84" ht="15.75">
       <c r="A7" s="21" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>160</v>
@@ -3822,7 +3822,7 @@
     </row>
     <row r="9" spans="1:84" ht="15.75">
       <c r="A9" s="21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>116</v>
@@ -4076,7 +4076,7 @@
     </row>
     <row r="10" spans="1:84" ht="15.75">
       <c r="A10" s="21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>141</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="11" spans="1:84" ht="15.75">
       <c r="A11" s="21" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>166</v>
@@ -4584,7 +4584,7 @@
     </row>
     <row r="12" spans="1:84" ht="15.75">
       <c r="A12" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>133</v>
@@ -4838,7 +4838,7 @@
     </row>
     <row r="13" spans="1:84" ht="15.75">
       <c r="A13" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>74</v>
@@ -5346,7 +5346,7 @@
     </row>
     <row r="15" spans="1:84" ht="16.5" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>146</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="17" spans="1:84" ht="15.75">
       <c r="A17" s="21" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>110</v>
